--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\ExcelToData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C2DCA5-B6AE-4592-9148-2618E70DA7AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938FE968-7EFF-4DB7-B397-1F69EB89FFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="-108" windowWidth="22176" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32085" yWindow="4170" windowWidth="20760" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,14 +131,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Array[int/ref&lt;RefName&gt;/string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dic{int,long}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,6 +208,22 @@
   </si>
   <si>
     <t>NotNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int/ref&lt;RefName&gt;/string]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic{int,long}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,25 +578,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,13 +625,16 @@
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -652,83 +663,88 @@
         <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J3" s="2"/>
       <c r="K3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -742,37 +758,39 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -786,8 +804,9 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -801,8 +820,9 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -814,8 +834,9 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -827,8 +848,9 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -840,8 +862,9 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -853,8 +876,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -866,8 +890,9 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -879,8 +904,9 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -892,8 +918,9 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -905,8 +932,9 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -918,8 +946,9 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -931,8 +960,9 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -944,8 +974,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -957,6 +988,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DotGameProject\DotGameTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938FE968-7EFF-4DB7-B397-1F69EB89FFEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A336BAD-F136-449B-AAF6-5C0853957E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32085" yWindow="4170" windowWidth="20760" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31425" yWindow="2280" windowWidth="20625" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,11 +219,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array[int/ref&lt;RefName&gt;/string]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dic{int,long}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>est</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,1;2,2}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,22 +605,22 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -634,7 +658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -666,13 +690,13 @@
         <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -744,7 +768,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -760,7 +784,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -790,39 +814,83 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -836,7 +904,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -850,7 +918,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -864,7 +932,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -878,7 +946,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -892,7 +960,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -906,7 +974,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -920,7 +988,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -934,7 +1002,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -948,7 +1016,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -962,7 +1030,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -976,7 +1044,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A336BAD-F136-449B-AAF6-5C0853957E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF2699-0B3C-4855-8C1E-F7B26333E74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="2280" windowWidth="20625" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="4095" windowWidth="20760" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,30 +183,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unique</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Range{value1,value2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Less{value}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greater{value}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefExist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLength{value}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NotNull</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +224,14 @@
   </si>
   <si>
     <t>{1,1;2,2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique@IntRange{0,100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLength{10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +252,14 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -315,16 +307,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -605,22 +600,22 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -649,7 +644,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -658,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -687,16 +682,16 @@
         <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -732,7 +727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -768,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -784,37 +779,29 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -834,25 +821,25 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -872,25 +859,25 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -904,7 +891,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -918,7 +905,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -932,7 +919,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -946,7 +933,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -960,7 +947,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -974,7 +961,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -988,7 +975,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1002,7 +989,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1016,7 +1003,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1030,7 +1017,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1044,7 +1031,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1060,7 +1047,10 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{3F526A21-D769-4444-9E0B-B44D2D315E5C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DotGameProject\DotGameTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BF2699-0B3C-4855-8C1E-F7B26333E74E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D78B7C9-C1DB-4509-AD6D-6C2B3A591618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="4095" windowWidth="20760" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31425" yWindow="2280" windowWidth="20625" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -231,7 +231,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxLength{10}</t>
+    <t>StringMaxLen{10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,22 +600,22 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -691,7 +691,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -727,7 +727,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -763,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -779,7 +779,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -839,7 +839,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -877,7 +877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -891,7 +891,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -905,7 +905,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -919,7 +919,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -933,7 +933,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -947,7 +947,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -961,7 +961,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -975,7 +975,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -989,7 +989,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1003,7 +1003,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1017,7 +1017,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D78B7C9-C1DB-4509-AD6D-6C2B3A591618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C015083-A9D4-4E99-8324-171CE726EE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31425" yWindow="2280" windowWidth="20625" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36960" yWindow="2520" windowWidth="20625" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,15 +131,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -644,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>15</v>
@@ -682,13 +674,13 @@
         <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -699,32 +691,34 @@
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -732,35 +726,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -784,17 +778,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -821,22 +815,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -859,22 +853,22 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C015083-A9D4-4E99-8324-171CE726EE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561EE640-299E-4DD4-A657-14F8F601CD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36960" yWindow="2520" windowWidth="20625" windowHeight="12525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,11 +219,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Unique@IntRange{0,100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringMaxLen{10}</t>
+    <t>Unique@Range{0,100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLen{10}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,11 +303,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -592,210 +594,211 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -833,7 +836,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -871,7 +874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -885,7 +888,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -899,7 +902,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -913,7 +916,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -927,7 +930,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -941,7 +944,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -955,7 +958,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -969,7 +972,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -983,7 +986,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -997,7 +1000,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1011,7 +1014,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1025,7 +1028,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561EE640-299E-4DD4-A657-14F8F601CD0F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF500AE7-F9B4-4B7F-A07A-41C82583C417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,14 @@
   </si>
   <si>
     <t>MaxLen{10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -594,7 +602,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -694,7 +702,7 @@
         <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>26</v>
@@ -721,7 +729,7 @@
         <v>26</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF500AE7-F9B4-4B7F-A07A-41C82583C417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A0762-4E54-4F16-9FD1-6C39DF02E511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Text" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +233,54 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique@NotNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天天气不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天天气不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yesterday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +312,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +331,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -306,18 +361,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -601,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1058,4 +1152,133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E144D3-DC0D-4BEA-B2C2-4AE4828F0591}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{C118EAFB-7CBE-4B95-9578-90A6D2745455}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A0762-4E54-4F16-9FD1-6C39DF02E511}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCF9FA-19B5-4E5A-9800-F90A489BC1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,16 @@
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
     <sheet name="Text" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1156,127 +1162,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E144D3-DC0D-4BEA-B2C2-4AE4828F0591}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="C1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="F4" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="11"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="6" t="s">
         <v>63</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{C118EAFB-7CBE-4B95-9578-90A6D2745455}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{C118EAFB-7CBE-4B95-9578-90A6D2745455}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCF9FA-19B5-4E5A-9800-F90A489BC1ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FBE509-040F-4C4C-9B7F-0EA849510740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29895" yWindow="0" windowWidth="27900" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,231 +62,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FloatValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BoolValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringtValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DicValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RefValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ref&lt;RefName&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int类型的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型的值，基中RefName指的是引用的另一张表的名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Long类型值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float类型的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool类型值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串值，一般不会超过512</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity资源类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotNull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LuaValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dic{int,long}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array[int]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>est</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>set</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1,1;2,2}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unique@Range{0,100}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxLen{10}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh-cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简体中文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天天气不错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今天天气不好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yesterday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IntValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FloatValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LongValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BoolValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StringtValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArrayValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DicValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RefValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stringt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>res</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref&lt;RefName&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int类型的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>引用类型的值，基中RefName指的是引用的另一张表的名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Long类型值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Float类型的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bool类型值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符串值，一般不会超过512</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国际化字符串</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unity资源类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数组类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LuaValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dic{int,long}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array[int]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>est</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>set</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[1,2,3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{1,1;2,2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique@Range{0,100}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaxLen{10}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique@NotNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh-cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简体中文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天天气不错</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>今天天气不好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>en</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>英文</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Today</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yesterday</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,7 +310,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -340,6 +332,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -415,9 +413,10 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -702,7 +701,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,37 +722,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -761,37 +760,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -799,37 +798,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -837,35 +836,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -889,17 +888,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -926,28 +925,26 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -964,26 +961,28 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1165,7 +1164,7 @@
   <dimension ref="C1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1175,91 +1174,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+      <c r="F4" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="F7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
@@ -1268,23 +1265,20 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{C118EAFB-7CBE-4B95-9578-90A6D2745455}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FBE509-040F-4C4C-9B7F-0EA849510740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ABE7B5-143A-47B7-A0E4-11EC4A5B42B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="0" windowWidth="27900" windowHeight="16200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29895" yWindow="0" windowWidth="27900" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StringtValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ResValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +166,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NotNull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LuaValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>est</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>set</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -279,6 +267,14 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -700,13 +696,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.75" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="4" max="4" width="11.125" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
@@ -722,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
@@ -740,19 +736,19 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -760,37 +756,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="H2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -798,37 +794,37 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -836,35 +832,35 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -888,18 +884,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>34</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -925,22 +919,22 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -961,27 +955,27 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1163,8 +1157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E144D3-DC0D-4BEA-B2C2-4AE4828F0591}">
   <dimension ref="C1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1178,13 +1172,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.2">
@@ -1192,13 +1186,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="3:6" x14ac:dyDescent="0.2">
@@ -1206,13 +1200,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.2">
@@ -1220,13 +1214,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.2">
@@ -1253,10 +1247,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.2">
@@ -1265,15 +1259,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99ABE7B5-143A-47B7-A0E4-11EC4A5B42B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344B7B9-91B4-4A8D-BA62-F9DAA12D98F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="0" windowWidth="27900" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>zh-cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>简体中文</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,6 +271,10 @@
   </si>
   <si>
     <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,24 +696,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -736,7 +736,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -751,12 +751,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -774,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
@@ -789,7 +789,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -827,7 +827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,7 +863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -937,7 +937,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>2</v>
@@ -973,9 +973,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -989,7 +989,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1003,7 +1003,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1017,7 +1017,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1045,7 +1045,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1059,7 +1059,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1073,7 +1073,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1087,7 +1087,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1101,7 +1101,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1115,7 +1115,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1129,7 +1129,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1157,17 +1157,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E144D3-DC0D-4BEA-B2C2-4AE4828F0591}">
   <dimension ref="C1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1175,18 +1175,18 @@
         <v>46</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
@@ -1195,7 +1195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1217,13 +1217,13 @@
         <v>47</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1239,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1247,27 +1247,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B344B7B9-91B4-4A8D-BA62-F9DAA12D98F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE7E11C-86DF-4B89-89AA-CD2EF0E8EC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1,2,3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,23 +254,86 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TextValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zh</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Doay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dla</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Today</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dodo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return 1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,5]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -718,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -736,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -756,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -774,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
@@ -797,7 +856,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -824,7 +883,7 @@
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -884,14 +943,14 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -928,19 +987,19 @@
         <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2</v>
@@ -964,173 +1023,413 @@
         <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="B10" s="2">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1">
+        <v>754</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="1">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="B12" s="2">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="B13" s="2">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3</v>
+      </c>
+      <c r="D13" s="1">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="J13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="B14" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3</v>
+      </c>
+      <c r="D14" s="1">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="F14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="B15" s="2">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="F15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="B16" s="2">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="F16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
+      <c r="B17" s="2">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>24.2</v>
+      </c>
+      <c r="F17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="B18" s="2">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1">
+        <v>124.2</v>
+      </c>
+      <c r="F18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="B19" s="2">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>234</v>
+      </c>
+      <c r="E19" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="F19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1157,8 +1456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E144D3-DC0D-4BEA-B2C2-4AE4828F0591}">
   <dimension ref="C1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1172,13 +1471,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="3:6" x14ac:dyDescent="0.25">
@@ -1186,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
@@ -1203,10 +1502,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="3:6" x14ac:dyDescent="0.25">
@@ -1214,13 +1513,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.25">
@@ -1247,10 +1546,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
@@ -1259,15 +1558,15 @@
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE7E11C-86DF-4B89-89AA-CD2EF0E8EC45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BE788-A682-4721-9FCD-F5D34A694D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29895" yWindow="0" windowWidth="27900" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="75">
   <si>
     <t>字段标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,10 +195,6 @@
   </si>
   <si>
     <t>{1,1;2,2}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unique@Range{0,100}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -756,28 +752,28 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="11.125" customWidth="1"/>
+    <col min="5" max="5" width="14.125" customWidth="1"/>
+    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>14</v>
@@ -795,7 +791,7 @@
         <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>11</v>
@@ -810,12 +806,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -833,7 +829,7 @@
         <v>18</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>20</v>
@@ -848,7 +844,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -856,7 +852,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>22</v>
@@ -883,10 +879,10 @@
         <v>22</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,7 +918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -938,19 +934,17 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -958,7 +952,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -987,7 +981,7 @@
         <v>38</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>39</v>
@@ -996,7 +990,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>20</v>
@@ -1023,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>39</v>
@@ -1032,7 +1026,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>11</v>
@@ -1050,16 +1044,16 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H9" s="1">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>39</v>
@@ -1068,7 +1062,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>31</v>
@@ -1086,16 +1080,16 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1">
         <v>2</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>39</v>
@@ -1104,7 +1098,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>4</v>
@@ -1122,25 +1116,25 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1">
         <v>2</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>5</v>
@@ -1158,25 +1152,25 @@
         <v>0</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H12" s="1">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>8</v>
@@ -1194,14 +1188,14 @@
         <v>0</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>39</v>
@@ -1210,7 +1204,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>111</v>
@@ -1228,25 +1222,25 @@
         <v>0</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>54</v>
@@ -1264,16 +1258,16 @@
         <v>0</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>39</v>
@@ -1282,7 +1276,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>32</v>
@@ -1300,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>39</v>
@@ -1318,7 +1312,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>12</v>
@@ -1336,16 +1330,16 @@
         <v>1</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H17" s="1">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>39</v>
@@ -1354,7 +1348,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>14</v>
@@ -1372,16 +1366,16 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>39</v>
@@ -1390,7 +1384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>9</v>
@@ -1408,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>39</v>
@@ -1426,9 +1420,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1444,11 +1438,8 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{3F526A21-D769-4444-9E0B-B44D2D315E5C}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1460,32 +1451,32 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>19</v>
@@ -1494,7 +1485,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1502,27 +1493,27 @@
         <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>47</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1521,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1529,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1546,27 +1537,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C9" s="6" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/cofing.xlsx
+++ b/cofing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\DotGameProject\DotGameTools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\DotGameProject\DotGameTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6BE788-A682-4721-9FCD-F5D34A694D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1F8C96-59CD-4A5C-BE6C-8A938D6455B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29895" yWindow="0" windowWidth="27900" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSheet" sheetId="1" r:id="rId1"/>
@@ -321,15 +321,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>return 1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[1,2,3,4]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>[1,2,3,5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function()
+    return 1.0
+end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -468,6 +470,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -752,23 +757,24 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="11.125" customWidth="1"/>
-    <col min="5" max="5" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.44140625" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -806,7 +812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -844,7 +850,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -882,7 +888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -918,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -934,7 +940,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -952,7 +958,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -980,8 +986,8 @@
       <c r="I7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>72</v>
+      <c r="J7" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>39</v>
@@ -990,7 +996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2">
         <v>20</v>
@@ -1016,8 +1022,8 @@
       <c r="I8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>72</v>
+      <c r="J8" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>39</v>
@@ -1026,7 +1032,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>11</v>
@@ -1052,8 +1058,8 @@
       <c r="I9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>72</v>
+      <c r="J9" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>39</v>
@@ -1062,7 +1068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>31</v>
@@ -1088,8 +1094,8 @@
       <c r="I10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>72</v>
+      <c r="J10" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>39</v>
@@ -1098,7 +1104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>4</v>
@@ -1124,17 +1130,17 @@
       <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>5</v>
@@ -1160,17 +1166,17 @@
       <c r="I12" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>72</v>
+      <c r="J12" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>8</v>
@@ -1194,8 +1200,8 @@
         <v>2</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="2" t="s">
-        <v>72</v>
+      <c r="J13" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>39</v>
@@ -1204,7 +1210,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>111</v>
@@ -1230,17 +1236,17 @@
       <c r="I14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>54</v>
@@ -1266,8 +1272,8 @@
       <c r="I15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>72</v>
+      <c r="J15" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>39</v>
@@ -1276,7 +1282,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>32</v>
@@ -1302,8 +1308,8 @@
       <c r="I16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>72</v>
+      <c r="J16" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>39</v>
@@ -1312,7 +1318,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>12</v>
@@ -1338,8 +1344,8 @@
       <c r="I17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>72</v>
+      <c r="J17" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>39</v>
@@ -1348,7 +1354,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>14</v>
@@ -1374,8 +1380,8 @@
       <c r="I18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>72</v>
+      <c r="J18" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>39</v>
@@ -1384,7 +1390,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>9</v>
@@ -1410,8 +1416,8 @@
       <c r="I19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>72</v>
+      <c r="J19" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>39</v>
@@ -1420,7 +1426,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -1451,13 +1457,13 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
@@ -1485,7 +1491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
@@ -1499,7 +1505,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
@@ -1513,7 +1519,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1527,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1529,7 +1535,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>6</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2">
         <v>2</v>
@@ -1555,7 +1561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C9" s="6" t="s">
         <v>53</v>
       </c>
